--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LimWe\PlatformIO\Projects\Agritech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PlatformIO\Projects\Agritech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B59602-F045-4A5E-BFDC-FB14C8572285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA928B6-A6F6-47B5-989C-2EAE0EA00490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
+    <workbookView xWindow="38280" yWindow="3720" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
   </bookViews>
   <sheets>
     <sheet name="RAC Ver 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>BOM</t>
   </si>
@@ -124,6 +124,78 @@
   </si>
   <si>
     <t>Solenoid Valve</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Esp board</t>
+  </si>
+  <si>
+    <t>BS18B20</t>
+  </si>
+  <si>
+    <t>DFRobot Gravity V2</t>
+  </si>
+  <si>
+    <t>DFR0300</t>
+  </si>
+  <si>
+    <t>12v Power supply</t>
+  </si>
+  <si>
+    <t>8 Switch relay</t>
+  </si>
+  <si>
+    <t>Housing/Structures</t>
+  </si>
+  <si>
+    <t>Voltage converter</t>
+  </si>
+  <si>
+    <t>LM2596 step down module</t>
+  </si>
+  <si>
+    <t>Peristaltic pump tubing</t>
+  </si>
+  <si>
+    <t>1.5L Bottle</t>
+  </si>
+  <si>
+    <t>Hosing</t>
+  </si>
+  <si>
+    <t>Liquid reservoirs</t>
+  </si>
+  <si>
+    <t>Power cable</t>
+  </si>
+  <si>
+    <t>Junction box for electronics</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>15.82</t>
+  </si>
+  <si>
+    <t>6.60</t>
+  </si>
+  <si>
+    <t>8.65</t>
+  </si>
+  <si>
+    <t>11.65</t>
+  </si>
+  <si>
+    <t>12.04</t>
+  </si>
+  <si>
+    <t>9.51</t>
+  </si>
+  <si>
+    <t>3.13</t>
   </si>
 </sst>
 </file>
@@ -170,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -283,43 +355,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -347,21 +382,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,14 +728,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -852,32 +887,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EDE3F-947F-4A72-9FC4-8FC04454CACB}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="2" max="3" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -885,19 +921,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -907,49 +946,56 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4">
-        <f>IF(C3="USD",D3*E3*1.36,E3*D3)</f>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
+        <f>IF(D3="USD",E3*F3*1.36,F3*E3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F8" si="0">IF(C4="USD",D4*E4*1.36,E4*D4)</f>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G18" si="0">IF(D4="USD",E4*F4*1.36,F4*E4)</f>
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>SUM(G3:G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>25.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f>SUM(G5)</f>
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -957,124 +1003,313 @@
         <v>12</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>53.720000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>108.66400000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="H8">
+        <f>SUM(G6:G8)</f>
+        <v>164.68400000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="B9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>SUM(G9:G12)</f>
+        <v>23.819999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
+      <c r="E13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="21">
         <v>7</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>46.199999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
+      <c r="E14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="17" t="s">
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="H14">
+        <f>SUM(G13:G14)</f>
+        <v>68.699999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <f>IF(D16="USD",E13*F16*1.36,F16*E13)</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>15.82</v>
+      </c>
+      <c r="H17">
+        <f>SUM(G15:G17)</f>
+        <v>29.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="26">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>11.65</v>
+      </c>
+      <c r="H18">
+        <f>SUM(G18)</f>
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="18">
-        <f>SUM(F3:F8)</f>
+      <c r="G20" s="2">
+        <f>SUM(G3:G8)</f>
         <v>190.48400000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LimWe\PlatformIO\Projects\Agritech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0540000_u_nus_edu/Documents/Documents/GitHub/Agritech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B59602-F045-4A5E-BFDC-FB14C8572285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{C3B59602-F045-4A5E-BFDC-FB14C8572285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C496E7-0D15-44E9-AF70-A4DFFE961F44}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
+    <workbookView xWindow="52800" yWindow="3840" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
   </bookViews>
   <sheets>
     <sheet name="RAC Ver 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>BOM</t>
   </si>
@@ -124,6 +124,60 @@
   </si>
   <si>
     <t>Solenoid Valve</t>
+  </si>
+  <si>
+    <t>[1] Convertion rate of 1 USD = 1.36 SGD</t>
+  </si>
+  <si>
+    <t>Miscellanous</t>
+  </si>
+  <si>
+    <t>12v power supply</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>8 switch relay module</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>Junction box</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Power Plug</t>
+  </si>
+  <si>
+    <t>Free[2]</t>
+  </si>
+  <si>
+    <t>[2] Free under certina usage conditions</t>
+  </si>
+  <si>
+    <t>Wastewater container</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>9.51</t>
+  </si>
+  <si>
+    <t>Roughly $5 [3]</t>
+  </si>
+  <si>
+    <t>[3] Depends on availability</t>
   </si>
 </sst>
 </file>
@@ -170,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -210,15 +264,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -288,80 +333,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,14 +699,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -852,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EDE3F-947F-4A72-9FC4-8FC04454CACB}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,14 +874,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -887,13 +893,13 @@
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -905,11 +911,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4">
-        <f>IF(C3="USD",D3*E3*1.36,E3*D3)</f>
-        <v>0</v>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -920,12 +929,17 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F8" si="0">IF(C4="USD",D4*E4*1.36,E4*D4)</f>
-        <v>0</v>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -938,15 +952,18 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="22">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F15" si="0">IF(C5="USD",D5*E5*1.36,E5*D5)</f>
         <v>25.8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -968,6 +985,9 @@
       <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1009,67 +1029,161 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <f>IF(C9="USD",D9*E9*1.36,E9*D9)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
+      <c r="D13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3">
         <v>7</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
+      <c r="D14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="22">
         <v>1</v>
       </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="18">
-        <f>SUM(F3:F8)</f>
-        <v>190.48400000000004</v>
+      <c r="F17" s="18">
+        <f>SUM(F3:F10)</f>
+        <v>204.48400000000004</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LimWe\PlatformIO\Projects\Agritech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repos\IS401\Main\Agritech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B59602-F045-4A5E-BFDC-FB14C8572285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9212ED6B-C707-4C04-95F7-6947062C55A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
   </bookViews>
   <sheets>
     <sheet name="RAC Ver 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>BOM</t>
   </si>
@@ -124,6 +124,60 @@
   </si>
   <si>
     <t>Solenoid Valve</t>
+  </si>
+  <si>
+    <t>[1] Convertion rate of 1 USD = 1.36 SGD</t>
+  </si>
+  <si>
+    <t>Miscellanous</t>
+  </si>
+  <si>
+    <t>12v power supply</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>8 switch relay module</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>Junction box</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Power Plug</t>
+  </si>
+  <si>
+    <t>Free[2]</t>
+  </si>
+  <si>
+    <t>[2] Free under certina usage conditions</t>
+  </si>
+  <si>
+    <t>Wastewater container</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>9.51</t>
+  </si>
+  <si>
+    <t>Roughly $5 [3]</t>
+  </si>
+  <si>
+    <t>[3] Depends on availability</t>
   </si>
 </sst>
 </file>
@@ -170,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -210,15 +264,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -288,80 +333,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,14 +695,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -852,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EDE3F-947F-4A72-9FC4-8FC04454CACB}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,14 +870,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -887,13 +889,13 @@
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -905,11 +907,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4">
-        <f>IF(C3="USD",D3*E3*1.36,E3*D3)</f>
-        <v>0</v>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -920,12 +925,17 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F8" si="0">IF(C4="USD",D4*E4*1.36,E4*D4)</f>
-        <v>0</v>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -938,15 +948,18 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F15" si="0">IF(C5="USD",D5*E5*1.36,E5*D5)</f>
         <v>25.8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -968,6 +981,9 @@
       <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1009,67 +1025,161 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <f>IF(C9="USD",D9*E9*1.36,E9*D9)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="9"/>
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3">
         <v>7</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="18">
-        <f>SUM(F3:F8)</f>
-        <v>190.48400000000004</v>
+      <c r="F17" s="18">
+        <f>SUM(F3:F10)</f>
+        <v>204.48400000000004</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0540000_u_nus_edu/Documents/Documents/GitHub/Agritech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repos\IS401\RAC\Agritech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{C3B59602-F045-4A5E-BFDC-FB14C8572285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C496E7-0D15-44E9-AF70-A4DFFE961F44}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B1821-DC24-405C-8CE9-696C23A952BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="3840" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
   </bookViews>
   <sheets>
     <sheet name="RAC Ver 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>BOM</t>
   </si>
@@ -174,17 +174,26 @@
     <t>9.51</t>
   </si>
   <si>
-    <t>Roughly $5 [3]</t>
-  </si>
-  <si>
     <t>[3] Depends on availability</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Hose adapter</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>Roughly 5.00 Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +224,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -359,15 +374,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,14 +713,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -858,10 +872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EDE3F-947F-4A72-9FC4-8FC04454CACB}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,14 +888,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -893,13 +907,13 @@
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -952,14 +966,14 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F15" si="0">IF(C5="USD",D5*E5*1.36,E5*D5)</f>
+        <f t="shared" ref="F5:F17" si="0">IF(C5="USD",D5*E5*1.36,E5*D5)</f>
         <v>25.8</v>
       </c>
       <c r="H5" t="s">
@@ -968,7 +982,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>12</v>
@@ -987,7 +1001,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1051,16 +1065,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="5">
@@ -1070,38 +1084,38 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>37</v>
+      <c r="F11" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
+      <c r="F12" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1127,16 +1141,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="5">
@@ -1151,7 +1165,9 @@
       <c r="B15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="15" t="s">
         <v>36</v>
       </c>
@@ -1164,32 +1180,57 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
-        <v>42</v>
+      <c r="A16" s="5"/>
+      <c r="B16" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="24">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
-        <f>SUM(F3:F10)</f>
-        <v>204.48400000000004</v>
+      <c r="F18" s="18">
+        <f>SUM(F3:F17)</f>
+        <v>308.49400000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repos\IS401\RAC\Agritech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B1821-DC24-405C-8CE9-696C23A952BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C37E8-295B-4518-B797-479714DA4796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
   </bookViews>
   <sheets>
     <sheet name="RAC Ver 1" sheetId="1" r:id="rId1"/>
     <sheet name="RAC Ver 2" sheetId="3" r:id="rId2"/>
+    <sheet name="RAC Ver 3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="51">
   <si>
     <t>BOM</t>
   </si>
@@ -187,6 +188,9 @@
   </si>
   <si>
     <t>Roughly 5.00 Total</t>
+  </si>
+  <si>
+    <t>CO2 sensor</t>
   </si>
 </sst>
 </file>
@@ -231,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -352,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -379,9 +389,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EDE3F-947F-4A72-9FC4-8FC04454CACB}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,16 +1193,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="4">
@@ -1233,4 +1245,387 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D173D40-7B5C-4D73-A8EF-B3CDDBF054AF}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F18" si="0">IF(C5="USD",D5*E5*1.36,E5*D5)</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>53.720000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8" si="1">IF(C8="USD",D8*E8*1.36,E8*D8)</f>
+        <v>108.66400000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="24">
+        <v>50</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <f>IF(C10="USD",D10*E10*1.36,E10*D10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="18">
+        <f>SUM(F3:F18)</f>
+        <v>371.39400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repos\IS401\Main\Agritech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repos\IS401\RAC\Agritech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9212ED6B-C707-4C04-95F7-6947062C55A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C37E8-295B-4518-B797-479714DA4796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
   </bookViews>
   <sheets>
     <sheet name="RAC Ver 1" sheetId="1" r:id="rId1"/>
     <sheet name="RAC Ver 2" sheetId="3" r:id="rId2"/>
+    <sheet name="RAC Ver 3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="51">
   <si>
     <t>BOM</t>
   </si>
@@ -174,17 +175,29 @@
     <t>9.51</t>
   </si>
   <si>
-    <t>Roughly $5 [3]</t>
-  </si>
-  <si>
     <t>[3] Depends on availability</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Hose adapter</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>Roughly 5.00 Total</t>
+  </si>
+  <si>
+    <t>CO2 sensor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +228,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -337,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -364,6 +389,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EDE3F-947F-4A72-9FC4-8FC04454CACB}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F15" si="0">IF(C5="USD",D5*E5*1.36,E5*D5)</f>
+        <f t="shared" ref="F5:F17" si="0">IF(C5="USD",D5*E5*1.36,E5*D5)</f>
         <v>25.8</v>
       </c>
       <c r="H5" t="s">
@@ -964,7 +994,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>12</v>
@@ -983,7 +1013,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1073,13 +1103,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>37</v>
+      <c r="F11" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1091,13 +1121,13 @@
         <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
+      <c r="F12" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1147,7 +1177,9 @@
       <c r="B15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="15" t="s">
         <v>36</v>
       </c>
@@ -1160,26 +1192,434 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="18">
+        <f>SUM(F3:F17)</f>
+        <v>308.49400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D173D40-7B5C-4D73-A8EF-B3CDDBF054AF}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F18" si="0">IF(C5="USD",D5*E5*1.36,E5*D5)</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>53.720000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8" si="1">IF(C8="USD",D8*E8*1.36,E8*D8)</f>
+        <v>108.66400000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="24">
+        <v>50</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <f>IF(C10="USD",D10*E10*1.36,E10*D10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="17" t="s">
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
-        <f>SUM(F3:F10)</f>
-        <v>204.48400000000004</v>
+      <c r="F19" s="18">
+        <f>SUM(F3:F18)</f>
+        <v>371.39400000000001</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repos\IS401\RAC\Agritech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PlatformIO\Projects\Agritech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C37E8-295B-4518-B797-479714DA4796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8B6720-FCCE-4ACB-B016-584FF339E6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{13700059-ED45-4C40-BE39-042EB1367643}"/>
   </bookViews>
   <sheets>
     <sheet name="RAC Ver 1" sheetId="1" r:id="rId1"/>
     <sheet name="RAC Ver 2" sheetId="3" r:id="rId2"/>
     <sheet name="RAC Ver 3" sheetId="5" r:id="rId3"/>
+    <sheet name="Ref Design 2" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="55">
   <si>
     <t>BOM</t>
   </si>
@@ -191,6 +192,18 @@
   </si>
   <si>
     <t>CO2 sensor</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Webapp Template (Provided)</t>
+  </si>
+  <si>
+    <t>Generic Peristaltic pump</t>
+  </si>
+  <si>
+    <t>High Flowrate Peristaltic pump (Grothen G928 Power)</t>
   </si>
 </sst>
 </file>
@@ -362,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -386,14 +399,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,9 +430,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -452,7 +470,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -558,7 +576,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,14 +743,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -900,14 +918,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1251,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D173D40-7B5C-4D73-A8EF-B3CDDBF054AF}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,14 +1283,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1420,20 +1438,20 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="C9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="25">
-        <v>1</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -1620,6 +1638,408 @@
       <c r="F19" s="18">
         <f>SUM(F3:F18)</f>
         <v>371.39400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EC4D3D-9A19-4A15-833C-EF2D4C3FD49B}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F19" si="0">IF(C5="USD",D5*E5*1.36,E5*D5)</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>53.720000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>108.66400000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="23">
+        <v>50</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <f>IF(C10="USD",D10*E10*1.36,E10*D10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="27">
+        <v>50</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="18">
+        <f>SUM(F3:F19)</f>
+        <v>391.39400000000001</v>
       </c>
     </row>
   </sheetData>
